--- a/data/pca/factorExposure/factorExposure_2015-11-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01616555480036398</v>
+        <v>-0.01355204594814564</v>
       </c>
       <c r="C2">
-        <v>-0.03555466836350967</v>
+        <v>-0.03367014158393851</v>
       </c>
       <c r="D2">
-        <v>-0.088199599139546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1227400543134455</v>
+      </c>
+      <c r="E2">
+        <v>0.06721268980879627</v>
+      </c>
+      <c r="F2">
+        <v>-0.02447129081284547</v>
+      </c>
+      <c r="G2">
+        <v>0.06852987120250337</v>
+      </c>
+      <c r="H2">
+        <v>-0.09980262691964635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01798026682025485</v>
+        <v>-0.01041872314309525</v>
       </c>
       <c r="C3">
-        <v>-0.0539526748190951</v>
+        <v>-0.03784976356863139</v>
       </c>
       <c r="D3">
-        <v>-0.1206199906771278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07304009447888217</v>
+      </c>
+      <c r="E3">
+        <v>0.04584745414067508</v>
+      </c>
+      <c r="F3">
+        <v>-0.04170956898912695</v>
+      </c>
+      <c r="G3">
+        <v>0.09687326652209446</v>
+      </c>
+      <c r="H3">
+        <v>-0.01389228568073985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05401382671173881</v>
+        <v>-0.05367850996054385</v>
       </c>
       <c r="C4">
-        <v>-0.0400116579055455</v>
+        <v>-0.06276101917708192</v>
       </c>
       <c r="D4">
-        <v>-0.1268797166547211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1452435757627095</v>
+      </c>
+      <c r="E4">
+        <v>0.05377684958174776</v>
+      </c>
+      <c r="F4">
+        <v>-0.02008881271388492</v>
+      </c>
+      <c r="G4">
+        <v>-0.03799526166657385</v>
+      </c>
+      <c r="H4">
+        <v>0.01997986225933414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04431465807033175</v>
+        <v>-0.04023030209132963</v>
       </c>
       <c r="C6">
-        <v>-0.009463436299023706</v>
+        <v>-0.02783443308735153</v>
       </c>
       <c r="D6">
-        <v>-0.1346716925499651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1333037494970005</v>
+      </c>
+      <c r="E6">
+        <v>0.03111922751445183</v>
+      </c>
+      <c r="F6">
+        <v>-0.01720904342141951</v>
+      </c>
+      <c r="G6">
+        <v>0.0104726450198389</v>
+      </c>
+      <c r="H6">
+        <v>-0.01772917204399284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02122247431740657</v>
+        <v>-0.01450044016264606</v>
       </c>
       <c r="C7">
-        <v>-0.01866111762949465</v>
+        <v>-0.03060075944628693</v>
       </c>
       <c r="D7">
-        <v>-0.09682575382263889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09475305044570932</v>
+      </c>
+      <c r="E7">
+        <v>0.03279839724052116</v>
+      </c>
+      <c r="F7">
+        <v>-0.01910612447350857</v>
+      </c>
+      <c r="G7">
+        <v>-0.004311037737969195</v>
+      </c>
+      <c r="H7">
+        <v>-0.1152093991794301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01002098113853863</v>
+        <v>-0.006673575822860846</v>
       </c>
       <c r="C8">
-        <v>-0.03014615622241964</v>
+        <v>-0.03715782079969476</v>
       </c>
       <c r="D8">
-        <v>-0.05457507958848347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07203112643156953</v>
+      </c>
+      <c r="E8">
+        <v>0.03589927484428041</v>
+      </c>
+      <c r="F8">
+        <v>-0.04245275229206618</v>
+      </c>
+      <c r="G8">
+        <v>0.01294276463648505</v>
+      </c>
+      <c r="H8">
+        <v>-0.04633242572260205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04279716770050947</v>
+        <v>-0.04177460197237739</v>
       </c>
       <c r="C9">
-        <v>-0.03991200902830073</v>
+        <v>-0.05922738466432674</v>
       </c>
       <c r="D9">
-        <v>-0.1111510850911478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1228375093270502</v>
+      </c>
+      <c r="E9">
+        <v>0.03800390539834392</v>
+      </c>
+      <c r="F9">
+        <v>-0.002695653583536304</v>
+      </c>
+      <c r="G9">
+        <v>-0.02834318776831986</v>
+      </c>
+      <c r="H9">
+        <v>-0.008756359838769573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09350721779170548</v>
+        <v>-0.1392354470129992</v>
       </c>
       <c r="C10">
-        <v>0.1947914164475313</v>
+        <v>0.1861683690099329</v>
       </c>
       <c r="D10">
-        <v>-0.0008079126606876056</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001675803187159563</v>
+      </c>
+      <c r="E10">
+        <v>0.04343289675307187</v>
+      </c>
+      <c r="F10">
+        <v>-0.02284607823818321</v>
+      </c>
+      <c r="G10">
+        <v>-0.03427088963683694</v>
+      </c>
+      <c r="H10">
+        <v>0.003418899330665954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03413748242502925</v>
+        <v>-0.02782733187476806</v>
       </c>
       <c r="C11">
-        <v>-0.0397337488598226</v>
+        <v>-0.044573496455743</v>
       </c>
       <c r="D11">
-        <v>-0.0570623603927698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05801074365871872</v>
+      </c>
+      <c r="E11">
+        <v>-0.003550330282586045</v>
+      </c>
+      <c r="F11">
+        <v>-0.001000111858413632</v>
+      </c>
+      <c r="G11">
+        <v>-0.000113823540403642</v>
+      </c>
+      <c r="H11">
+        <v>-0.04897590572305158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03904382510588057</v>
+        <v>-0.03301948567870344</v>
       </c>
       <c r="C12">
-        <v>-0.0396001937442246</v>
+        <v>-0.04578534696844193</v>
       </c>
       <c r="D12">
-        <v>-0.05965532818447157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0570724857688938</v>
+      </c>
+      <c r="E12">
+        <v>0.003395457967803283</v>
+      </c>
+      <c r="F12">
+        <v>0.00650067088996097</v>
+      </c>
+      <c r="G12">
+        <v>-0.0005443686309141182</v>
+      </c>
+      <c r="H12">
+        <v>-0.06172300608818639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01794210907745094</v>
+        <v>-0.0179241627356326</v>
       </c>
       <c r="C13">
-        <v>-0.03130247270681633</v>
+        <v>-0.0387830872012685</v>
       </c>
       <c r="D13">
-        <v>-0.1244333190562325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1447393211212455</v>
+      </c>
+      <c r="E13">
+        <v>0.04901539995168154</v>
+      </c>
+      <c r="F13">
+        <v>-0.03583282370193083</v>
+      </c>
+      <c r="G13">
+        <v>0.007197329290348383</v>
+      </c>
+      <c r="H13">
+        <v>-0.1052750469980628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01182050569524813</v>
+        <v>-0.009197459539110038</v>
       </c>
       <c r="C14">
-        <v>-0.01856895212876196</v>
+        <v>-0.02429631004182558</v>
       </c>
       <c r="D14">
-        <v>-0.07807533098189419</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08676022707646308</v>
+      </c>
+      <c r="E14">
+        <v>0.03749463712252574</v>
+      </c>
+      <c r="F14">
+        <v>0.008705490138788121</v>
+      </c>
+      <c r="G14">
+        <v>0.009863924988633133</v>
+      </c>
+      <c r="H14">
+        <v>-0.1089494268365127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.001783796179641171</v>
+        <v>-0.001767562192257119</v>
       </c>
       <c r="C15">
-        <v>-0.001335882393381511</v>
+        <v>-0.009832574722362276</v>
       </c>
       <c r="D15">
-        <v>-0.00312968500374611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03241442401514438</v>
+      </c>
+      <c r="E15">
+        <v>0.007422726189733169</v>
+      </c>
+      <c r="F15">
+        <v>0.001058115507716714</v>
+      </c>
+      <c r="G15">
+        <v>0.009757987121523322</v>
+      </c>
+      <c r="H15">
+        <v>-0.01084226009729244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0347365417699323</v>
+        <v>-0.02870634479549055</v>
       </c>
       <c r="C16">
-        <v>-0.04214342233201037</v>
+        <v>-0.0445765375886967</v>
       </c>
       <c r="D16">
-        <v>-0.06735737641985513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06151591659181397</v>
+      </c>
+      <c r="E16">
+        <v>0.009592866044266986</v>
+      </c>
+      <c r="F16">
+        <v>0.006718985935835517</v>
+      </c>
+      <c r="G16">
+        <v>0.0003105541686510528</v>
+      </c>
+      <c r="H16">
+        <v>-0.06096011172911983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.009419913014280773</v>
+        <v>-0.006083376297190495</v>
       </c>
       <c r="C19">
-        <v>-0.0258153098308344</v>
+        <v>-0.02061985246642514</v>
       </c>
       <c r="D19">
-        <v>-0.1678267955057395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1239072735987597</v>
+      </c>
+      <c r="E19">
+        <v>0.06434096468497374</v>
+      </c>
+      <c r="F19">
+        <v>0.005851040947768477</v>
+      </c>
+      <c r="G19">
+        <v>0.01904595217060944</v>
+      </c>
+      <c r="H19">
+        <v>-0.0673095737573214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01950532890197937</v>
+        <v>-0.01574842419084145</v>
       </c>
       <c r="C20">
-        <v>-0.02459587610121222</v>
+        <v>-0.03282598326719036</v>
       </c>
       <c r="D20">
-        <v>-0.08646474448798738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09865156920330155</v>
+      </c>
+      <c r="E20">
+        <v>0.05164079273357801</v>
+      </c>
+      <c r="F20">
+        <v>0.003308927595308054</v>
+      </c>
+      <c r="G20">
+        <v>-0.0004326702815874755</v>
+      </c>
+      <c r="H20">
+        <v>-0.06010195241756138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01447102600904924</v>
+        <v>-0.01319175591604117</v>
       </c>
       <c r="C21">
-        <v>-0.03235696584530647</v>
+        <v>-0.03763812900038883</v>
       </c>
       <c r="D21">
-        <v>-0.1270541430749393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1373119555595862</v>
+      </c>
+      <c r="E21">
+        <v>0.08850148357964256</v>
+      </c>
+      <c r="F21">
+        <v>-0.001231217030574014</v>
+      </c>
+      <c r="G21">
+        <v>-0.02637105730627685</v>
+      </c>
+      <c r="H21">
+        <v>-0.124537300091267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.008491863203133341</v>
+        <v>-0.005766299377808563</v>
       </c>
       <c r="C22">
-        <v>-0.02978391274311782</v>
+        <v>-0.0412841683023604</v>
       </c>
       <c r="D22">
-        <v>-0.08638060699663655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1441292782540371</v>
+      </c>
+      <c r="E22">
+        <v>0.02948476390910288</v>
+      </c>
+      <c r="F22">
+        <v>-0.08947019302626288</v>
+      </c>
+      <c r="G22">
+        <v>0.07313049247420543</v>
+      </c>
+      <c r="H22">
+        <v>0.0542855520320499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.008571948014096697</v>
+        <v>-0.005871052868907773</v>
       </c>
       <c r="C23">
-        <v>-0.02967552612197588</v>
+        <v>-0.04175620116671322</v>
       </c>
       <c r="D23">
-        <v>-0.08569762982181599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1435850359449422</v>
+      </c>
+      <c r="E23">
+        <v>0.02976967521275741</v>
+      </c>
+      <c r="F23">
+        <v>-0.08943964670500078</v>
+      </c>
+      <c r="G23">
+        <v>0.07219367443256658</v>
+      </c>
+      <c r="H23">
+        <v>0.05445786026670037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03516363254851123</v>
+        <v>-0.02989115877536365</v>
       </c>
       <c r="C24">
-        <v>-0.04858597417626363</v>
+        <v>-0.05641105779865212</v>
       </c>
       <c r="D24">
-        <v>-0.06549020114947092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06511751412532614</v>
+      </c>
+      <c r="E24">
+        <v>0.01350759323379659</v>
+      </c>
+      <c r="F24">
+        <v>0.005044156171250593</v>
+      </c>
+      <c r="G24">
+        <v>-0.008199309984286023</v>
+      </c>
+      <c r="H24">
+        <v>-0.07203413480011862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04077184796097028</v>
+        <v>-0.03446263113926438</v>
       </c>
       <c r="C25">
-        <v>-0.04781310551749843</v>
+        <v>-0.05344242751476672</v>
       </c>
       <c r="D25">
-        <v>-0.06425011508456119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06233009405941756</v>
+      </c>
+      <c r="E25">
+        <v>0.01346274740337144</v>
+      </c>
+      <c r="F25">
+        <v>-0.001763879981435689</v>
+      </c>
+      <c r="G25">
+        <v>-0.00747565983208078</v>
+      </c>
+      <c r="H25">
+        <v>-0.05601940160046278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02031831976320781</v>
+        <v>-0.01816076211107057</v>
       </c>
       <c r="C26">
-        <v>-0.008902403271100813</v>
+        <v>-0.01782207777525086</v>
       </c>
       <c r="D26">
-        <v>-0.05263945989597831</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06301848572278378</v>
+      </c>
+      <c r="E26">
+        <v>0.02693234999020256</v>
+      </c>
+      <c r="F26">
+        <v>-0.004240310275129793</v>
+      </c>
+      <c r="G26">
+        <v>0.005416707532167832</v>
+      </c>
+      <c r="H26">
+        <v>-0.06685551249032447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1420670972932961</v>
+        <v>-0.1990141019752189</v>
       </c>
       <c r="C28">
-        <v>0.2747953043272681</v>
+        <v>0.2503321190023542</v>
       </c>
       <c r="D28">
-        <v>0.03031470632351454</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.013193193149954</v>
+      </c>
+      <c r="E28">
+        <v>0.06966820703946143</v>
+      </c>
+      <c r="F28">
+        <v>-0.004815723026755926</v>
+      </c>
+      <c r="G28">
+        <v>-0.06529562869457672</v>
+      </c>
+      <c r="H28">
+        <v>-0.01111763970385765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007270990379860225</v>
+        <v>-0.006974078455592852</v>
       </c>
       <c r="C29">
-        <v>-0.01811329737433486</v>
+        <v>-0.02329826207720048</v>
       </c>
       <c r="D29">
-        <v>-0.06289441294785517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.08118977968358959</v>
+      </c>
+      <c r="E29">
+        <v>0.03424605477229445</v>
+      </c>
+      <c r="F29">
+        <v>-0.006960637403183726</v>
+      </c>
+      <c r="G29">
+        <v>-0.00799730070402402</v>
+      </c>
+      <c r="H29">
+        <v>-0.1130490226777174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03875882025063494</v>
+        <v>-0.04107653940992628</v>
       </c>
       <c r="C30">
-        <v>-0.03997455104301225</v>
+        <v>-0.06025011387185576</v>
       </c>
       <c r="D30">
-        <v>-0.1654598545272878</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1785006813423659</v>
+      </c>
+      <c r="E30">
+        <v>0.01993178167230431</v>
+      </c>
+      <c r="F30">
+        <v>-0.009293753126078519</v>
+      </c>
+      <c r="G30">
+        <v>0.02330946517125002</v>
+      </c>
+      <c r="H30">
+        <v>-0.008122865910891841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.07116269766453667</v>
+        <v>-0.05515967696075407</v>
       </c>
       <c r="C31">
-        <v>-0.05300439933233005</v>
+        <v>-0.07227702338466573</v>
       </c>
       <c r="D31">
-        <v>-0.06417273225644315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05492545612040165</v>
+      </c>
+      <c r="E31">
+        <v>0.03093515110920503</v>
+      </c>
+      <c r="F31">
+        <v>-0.03314945622350503</v>
+      </c>
+      <c r="G31">
+        <v>-0.02089369838710389</v>
+      </c>
+      <c r="H31">
+        <v>-0.04582839487997387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.007815184545240923</v>
+        <v>-0.01207588614876614</v>
       </c>
       <c r="C32">
-        <v>-0.01558122292393212</v>
+        <v>-0.01839911637640403</v>
       </c>
       <c r="D32">
-        <v>-0.06368048343584461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1003404628353594</v>
+      </c>
+      <c r="E32">
+        <v>0.09128847019815037</v>
+      </c>
+      <c r="F32">
+        <v>-0.01862774758603764</v>
+      </c>
+      <c r="G32">
+        <v>-0.02413324513506078</v>
+      </c>
+      <c r="H32">
+        <v>-0.09534964403972723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02528902335821231</v>
+        <v>-0.02271663140703888</v>
       </c>
       <c r="C33">
-        <v>-0.02665569124010028</v>
+        <v>-0.04278117431175982</v>
       </c>
       <c r="D33">
-        <v>-0.1319738570300099</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1312062016766932</v>
+      </c>
+      <c r="E33">
+        <v>0.04366534792175494</v>
+      </c>
+      <c r="F33">
+        <v>-0.01781305988085963</v>
+      </c>
+      <c r="G33">
+        <v>0.001690760346829273</v>
+      </c>
+      <c r="H33">
+        <v>-0.06960975818063049</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03540484621856451</v>
+        <v>-0.02669649028415984</v>
       </c>
       <c r="C34">
-        <v>-0.06215921982504793</v>
+        <v>-0.06097114677515459</v>
       </c>
       <c r="D34">
-        <v>-0.06848770057764901</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.055545386802148</v>
+      </c>
+      <c r="E34">
+        <v>-0.003556010723346712</v>
+      </c>
+      <c r="F34">
+        <v>0.01099564065211908</v>
+      </c>
+      <c r="G34">
+        <v>0.0003516611256349116</v>
+      </c>
+      <c r="H34">
+        <v>-0.07731490217590664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0008441314832520762</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0006828342565171925</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.004997970256312852</v>
+      </c>
+      <c r="E35">
+        <v>0.0007983436777845547</v>
+      </c>
+      <c r="F35">
+        <v>0.0001015176869575153</v>
+      </c>
+      <c r="G35">
+        <v>0.001951954770165505</v>
+      </c>
+      <c r="H35">
+        <v>-0.002526769322029725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02047894276957662</v>
+        <v>-0.01836671954137179</v>
       </c>
       <c r="C36">
-        <v>-0.002920505477412547</v>
+        <v>-0.01442569784619341</v>
       </c>
       <c r="D36">
-        <v>-0.07339015639993329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07754569615289145</v>
+      </c>
+      <c r="E36">
+        <v>0.03502550492499799</v>
+      </c>
+      <c r="F36">
+        <v>0.0009725419481646068</v>
+      </c>
+      <c r="G36">
+        <v>-0.01028685596442576</v>
+      </c>
+      <c r="H36">
+        <v>-0.05976720906818461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02376738586383981</v>
+        <v>-0.0198404751461727</v>
       </c>
       <c r="C38">
-        <v>-0.0157135647336963</v>
+        <v>-0.02034278409255577</v>
       </c>
       <c r="D38">
-        <v>-0.05007244565340493</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.05786943252211965</v>
+      </c>
+      <c r="E38">
+        <v>0.0368210284846659</v>
+      </c>
+      <c r="F38">
+        <v>0.003289023189592783</v>
+      </c>
+      <c r="G38">
+        <v>0.03749289771861256</v>
+      </c>
+      <c r="H38">
+        <v>-0.0393149699063566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0398753192758857</v>
+        <v>-0.03525825627073099</v>
       </c>
       <c r="C39">
-        <v>-0.05238416359624073</v>
+        <v>-0.0647209939388686</v>
       </c>
       <c r="D39">
-        <v>-0.08978465941676489</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1042764813633574</v>
+      </c>
+      <c r="E39">
+        <v>0.007219079737070213</v>
+      </c>
+      <c r="F39">
+        <v>0.02513248539529409</v>
+      </c>
+      <c r="G39">
+        <v>0.002139167265292862</v>
+      </c>
+      <c r="H39">
+        <v>-0.08917999181426949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0191179496803401</v>
+        <v>-0.01352727471252936</v>
       </c>
       <c r="C40">
-        <v>-0.04846984207194156</v>
+        <v>-0.03887081637508137</v>
       </c>
       <c r="D40">
-        <v>-0.07548718473728237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08447766648153113</v>
+      </c>
+      <c r="E40">
+        <v>0.06372467932173076</v>
+      </c>
+      <c r="F40">
+        <v>-0.06516057567872198</v>
+      </c>
+      <c r="G40">
+        <v>0.06029306691515758</v>
+      </c>
+      <c r="H40">
+        <v>-0.1646512508731315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02536827958948145</v>
+        <v>-0.02279507359578497</v>
       </c>
       <c r="C41">
-        <v>0.005953146466494486</v>
+        <v>-0.008775872306983094</v>
       </c>
       <c r="D41">
-        <v>-0.06628685864744678</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05436038644697469</v>
+      </c>
+      <c r="E41">
+        <v>0.05198902443578045</v>
+      </c>
+      <c r="F41">
+        <v>-0.004486202694713616</v>
+      </c>
+      <c r="G41">
+        <v>0.01232476817584396</v>
+      </c>
+      <c r="H41">
+        <v>-0.04890394452749866</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02992932525741385</v>
+        <v>-0.02230502948977851</v>
       </c>
       <c r="C43">
-        <v>-0.005524210665340971</v>
+        <v>-0.01808754067191725</v>
       </c>
       <c r="D43">
-        <v>-0.1033199699233041</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0835409868609138</v>
+      </c>
+      <c r="E43">
+        <v>0.03498264930034776</v>
+      </c>
+      <c r="F43">
+        <v>-0.004387172078651393</v>
+      </c>
+      <c r="G43">
+        <v>0.0114439453700374</v>
+      </c>
+      <c r="H43">
+        <v>-0.07244423112064168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01205227734181587</v>
+        <v>-0.0168309845124475</v>
       </c>
       <c r="C44">
-        <v>-0.04324327329307853</v>
+        <v>-0.04360571213318457</v>
       </c>
       <c r="D44">
-        <v>-0.07945667005840699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09827379836130487</v>
+      </c>
+      <c r="E44">
+        <v>0.06965143708232087</v>
+      </c>
+      <c r="F44">
+        <v>-0.008449515702865767</v>
+      </c>
+      <c r="G44">
+        <v>0.002944719699377517</v>
+      </c>
+      <c r="H44">
+        <v>-0.07424334395979049</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01968465652512681</v>
+        <v>-0.01554284158618183</v>
       </c>
       <c r="C46">
-        <v>-0.01906772002052867</v>
+        <v>-0.0284576167563489</v>
       </c>
       <c r="D46">
-        <v>-0.07270327369747581</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08636008563758102</v>
+      </c>
+      <c r="E46">
+        <v>0.03884559989438162</v>
+      </c>
+      <c r="F46">
+        <v>0.01689449717188266</v>
+      </c>
+      <c r="G46">
+        <v>-0.01625247438239218</v>
+      </c>
+      <c r="H46">
+        <v>-0.1143556427514665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09528021744368566</v>
+        <v>-0.08202972396592841</v>
       </c>
       <c r="C47">
-        <v>-0.06606124740492697</v>
+        <v>-0.08926246957801194</v>
       </c>
       <c r="D47">
-        <v>-0.04130503111016266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03283602031128383</v>
+      </c>
+      <c r="E47">
+        <v>0.03529471859797998</v>
+      </c>
+      <c r="F47">
+        <v>-0.02158170125525386</v>
+      </c>
+      <c r="G47">
+        <v>-0.04212525880882451</v>
+      </c>
+      <c r="H47">
+        <v>-0.01883097885269315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01643672083286557</v>
+        <v>-0.01630689186406922</v>
       </c>
       <c r="C48">
-        <v>-0.01475091981922421</v>
+        <v>-0.01962874761070829</v>
       </c>
       <c r="D48">
-        <v>-0.066748626153976</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07313884848869015</v>
+      </c>
+      <c r="E48">
+        <v>0.04978356977167566</v>
+      </c>
+      <c r="F48">
+        <v>0.001933243653376048</v>
+      </c>
+      <c r="G48">
+        <v>-0.007489673941401704</v>
+      </c>
+      <c r="H48">
+        <v>-0.06424758396380675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07094657783585472</v>
+        <v>-0.05381827475518166</v>
       </c>
       <c r="C50">
-        <v>-0.0595959698386511</v>
+        <v>-0.06651141740782239</v>
       </c>
       <c r="D50">
-        <v>-0.05580207092300454</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05424951286520042</v>
+      </c>
+      <c r="E50">
+        <v>0.0431198793635677</v>
+      </c>
+      <c r="F50">
+        <v>-0.04187841610256083</v>
+      </c>
+      <c r="G50">
+        <v>0.0116397531225361</v>
+      </c>
+      <c r="H50">
+        <v>-0.04759699190479622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.008911800272497768</v>
+        <v>-0.009267945961762152</v>
       </c>
       <c r="C51">
-        <v>-0.01922118992079174</v>
+        <v>-0.02005868134924777</v>
       </c>
       <c r="D51">
-        <v>-0.0812838804940111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08815275737805785</v>
+      </c>
+      <c r="E51">
+        <v>0.01378000984341829</v>
+      </c>
+      <c r="F51">
+        <v>0.001086227948614229</v>
+      </c>
+      <c r="G51">
+        <v>0.01497535736770039</v>
+      </c>
+      <c r="H51">
+        <v>-0.07499356102195705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08558774197268031</v>
+        <v>-0.08529759522837059</v>
       </c>
       <c r="C53">
-        <v>-0.09342682716941925</v>
+        <v>-0.1028167152551393</v>
       </c>
       <c r="D53">
-        <v>-0.01507115356952025</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01070441711315691</v>
+      </c>
+      <c r="E53">
+        <v>0.1050295805337973</v>
+      </c>
+      <c r="F53">
+        <v>-0.04567836502897654</v>
+      </c>
+      <c r="G53">
+        <v>-0.08783484777523015</v>
+      </c>
+      <c r="H53">
+        <v>-0.007069342509975606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03151220433610531</v>
+        <v>-0.02566289888689773</v>
       </c>
       <c r="C54">
-        <v>-0.03488907654703369</v>
+        <v>-0.03652792568752064</v>
       </c>
       <c r="D54">
-        <v>-0.08743209470975914</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08642523477512003</v>
+      </c>
+      <c r="E54">
+        <v>0.04292942423126252</v>
+      </c>
+      <c r="F54">
+        <v>0.01171882388060451</v>
+      </c>
+      <c r="G54">
+        <v>0.01894305740860125</v>
+      </c>
+      <c r="H54">
+        <v>-0.1160675831386296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09176669205463406</v>
+        <v>-0.08488537670330783</v>
       </c>
       <c r="C55">
-        <v>-0.06471793733609868</v>
+        <v>-0.08101990847451215</v>
       </c>
       <c r="D55">
-        <v>0.007670150314971246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.007427818361170446</v>
+      </c>
+      <c r="E55">
+        <v>0.06074220559857634</v>
+      </c>
+      <c r="F55">
+        <v>-0.04298885137811655</v>
+      </c>
+      <c r="G55">
+        <v>-0.04310813604164464</v>
+      </c>
+      <c r="H55">
+        <v>0.00492011831107599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1394571257285081</v>
+        <v>-0.1284170919630317</v>
       </c>
       <c r="C56">
-        <v>-0.09715992336076663</v>
+        <v>-0.1262821859069184</v>
       </c>
       <c r="D56">
-        <v>-0.005168396169941555</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.008128931128857091</v>
+      </c>
+      <c r="E56">
+        <v>0.06245755662524374</v>
+      </c>
+      <c r="F56">
+        <v>-0.03488267874998144</v>
+      </c>
+      <c r="G56">
+        <v>-0.04581127911133547</v>
+      </c>
+      <c r="H56">
+        <v>0.006010365338926595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01818836574642893</v>
+        <v>-0.02623696212022222</v>
       </c>
       <c r="C58">
-        <v>0.02060501293308554</v>
+        <v>-0.01774731350448804</v>
       </c>
       <c r="D58">
-        <v>-0.3473971286161167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3781625234663856</v>
+      </c>
+      <c r="E58">
+        <v>0.1925881975536902</v>
+      </c>
+      <c r="F58">
+        <v>-0.1423253881224664</v>
+      </c>
+      <c r="G58">
+        <v>0.2655346938079792</v>
+      </c>
+      <c r="H58">
+        <v>0.4146638851797956</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.137555396456768</v>
+        <v>-0.1774911466346011</v>
       </c>
       <c r="C59">
-        <v>0.1923770671363013</v>
+        <v>0.168273500691064</v>
       </c>
       <c r="D59">
-        <v>-0.03210864640738533</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05270338996261376</v>
+      </c>
+      <c r="E59">
+        <v>0.01827195689064108</v>
+      </c>
+      <c r="F59">
+        <v>0.04124851343227817</v>
+      </c>
+      <c r="G59">
+        <v>0.0007899397019516555</v>
+      </c>
+      <c r="H59">
+        <v>0.02549719802205492</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2493970969252781</v>
+        <v>-0.2272830039148011</v>
       </c>
       <c r="C60">
-        <v>-0.058875891523902</v>
+        <v>-0.1041463898726231</v>
       </c>
       <c r="D60">
-        <v>-0.177405766788898</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1172765526848885</v>
+      </c>
+      <c r="E60">
+        <v>-0.3639024322120477</v>
+      </c>
+      <c r="F60">
+        <v>-0.0291127576528109</v>
+      </c>
+      <c r="G60">
+        <v>-0.03160238137633426</v>
+      </c>
+      <c r="H60">
+        <v>0.1079903675755471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04675428271909386</v>
+        <v>-0.03974564601686967</v>
       </c>
       <c r="C61">
-        <v>-0.05531773786375199</v>
+        <v>-0.06183753294015749</v>
       </c>
       <c r="D61">
-        <v>-0.09592096343650104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09224425153618469</v>
+      </c>
+      <c r="E61">
+        <v>0.003662646037540746</v>
+      </c>
+      <c r="F61">
+        <v>0.01608771540129775</v>
+      </c>
+      <c r="G61">
+        <v>-0.009383730490515002</v>
+      </c>
+      <c r="H61">
+        <v>-0.0799705487879753</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01615766311371829</v>
+        <v>-0.01359479089040827</v>
       </c>
       <c r="C63">
-        <v>-0.02382965798291318</v>
+        <v>-0.03355614870667576</v>
       </c>
       <c r="D63">
-        <v>-0.06106302234427873</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06798431862521379</v>
+      </c>
+      <c r="E63">
+        <v>0.03107278696624288</v>
+      </c>
+      <c r="F63">
+        <v>-0.01786460397738715</v>
+      </c>
+      <c r="G63">
+        <v>0.001401617643010986</v>
+      </c>
+      <c r="H63">
+        <v>-0.05327552471443597</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0602204984741187</v>
+        <v>-0.05327794984201405</v>
       </c>
       <c r="C64">
-        <v>-0.06397130731167165</v>
+        <v>-0.08174366149059069</v>
       </c>
       <c r="D64">
-        <v>-0.05662756459424785</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05431318113552205</v>
+      </c>
+      <c r="E64">
+        <v>0.02702014536832939</v>
+      </c>
+      <c r="F64">
+        <v>0.01349971226769205</v>
+      </c>
+      <c r="G64">
+        <v>-0.05510262751980179</v>
+      </c>
+      <c r="H64">
+        <v>-0.06097401118055147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05199443006329294</v>
+        <v>-0.04802583867499188</v>
       </c>
       <c r="C65">
-        <v>-0.001695127588209658</v>
+        <v>-0.02435357692584419</v>
       </c>
       <c r="D65">
-        <v>-0.1115380877235874</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1161949969080206</v>
+      </c>
+      <c r="E65">
+        <v>0.002373789870973456</v>
+      </c>
+      <c r="F65">
+        <v>-0.01888093154856869</v>
+      </c>
+      <c r="G65">
+        <v>0.03250955220471199</v>
+      </c>
+      <c r="H65">
+        <v>0.02394052936845701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0454162455048763</v>
+        <v>-0.03993674967140542</v>
       </c>
       <c r="C66">
-        <v>-0.05835268929557887</v>
+        <v>-0.07509619010587457</v>
       </c>
       <c r="D66">
-        <v>-0.1109042535243359</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1295965554799474</v>
+      </c>
+      <c r="E66">
+        <v>0.01363281902962655</v>
+      </c>
+      <c r="F66">
+        <v>0.01047482126252936</v>
+      </c>
+      <c r="G66">
+        <v>0.01334387736235338</v>
+      </c>
+      <c r="H66">
+        <v>-0.0569302583084197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04255825362531317</v>
+        <v>-0.03663861552264755</v>
       </c>
       <c r="C67">
-        <v>-0.02142524168527896</v>
+        <v>-0.02627462783885169</v>
       </c>
       <c r="D67">
-        <v>-0.02003609135224062</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01897817197660813</v>
+      </c>
+      <c r="E67">
+        <v>0.01682272060259912</v>
+      </c>
+      <c r="F67">
+        <v>-0.0004452944388333499</v>
+      </c>
+      <c r="G67">
+        <v>0.03440794991847106</v>
+      </c>
+      <c r="H67">
+        <v>-0.03841412224829337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1586811593926808</v>
+        <v>-0.1962042114186824</v>
       </c>
       <c r="C68">
-        <v>0.2475170333295768</v>
+        <v>0.1987500384308812</v>
       </c>
       <c r="D68">
-        <v>0.01972851424488641</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01187341986101351</v>
+      </c>
+      <c r="E68">
+        <v>0.05377989230622217</v>
+      </c>
+      <c r="F68">
+        <v>-0.02975068591365598</v>
+      </c>
+      <c r="G68">
+        <v>0.01148256293497274</v>
+      </c>
+      <c r="H68">
+        <v>0.00354908709873319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08779530248550478</v>
+        <v>-0.07496405873594432</v>
       </c>
       <c r="C69">
-        <v>-0.08246976631770978</v>
+        <v>-0.09658859127595323</v>
       </c>
       <c r="D69">
-        <v>-0.06155766448607979</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04581946296708003</v>
+      </c>
+      <c r="E69">
+        <v>0.02464380564898254</v>
+      </c>
+      <c r="F69">
+        <v>-0.00734027184958292</v>
+      </c>
+      <c r="G69">
+        <v>-0.03179859576262146</v>
+      </c>
+      <c r="H69">
+        <v>-0.03450121924586948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1380326915185761</v>
+        <v>-0.1821960813153501</v>
       </c>
       <c r="C71">
-        <v>0.242749433774106</v>
+        <v>0.2104999003738684</v>
       </c>
       <c r="D71">
-        <v>-0.01836961956726835</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03544827169671019</v>
+      </c>
+      <c r="E71">
+        <v>0.05305621766181941</v>
+      </c>
+      <c r="F71">
+        <v>-0.03462190108060143</v>
+      </c>
+      <c r="G71">
+        <v>-0.01712685807479626</v>
+      </c>
+      <c r="H71">
+        <v>-0.02273030005021378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0975994671063508</v>
+        <v>-0.0977003798374519</v>
       </c>
       <c r="C72">
-        <v>-0.03921398977733598</v>
+        <v>-0.06952411820277712</v>
       </c>
       <c r="D72">
-        <v>-0.08598463468495939</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09289701474390211</v>
+      </c>
+      <c r="E72">
+        <v>-0.03628606409623413</v>
+      </c>
+      <c r="F72">
+        <v>-0.03766580782551717</v>
+      </c>
+      <c r="G72">
+        <v>-0.03438045078798607</v>
+      </c>
+      <c r="H72">
+        <v>-0.03930850694023506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2724410817120337</v>
+        <v>-0.2433102039373894</v>
       </c>
       <c r="C73">
-        <v>-0.001069280210802332</v>
+        <v>-0.08438831953607459</v>
       </c>
       <c r="D73">
-        <v>-0.2928942499319603</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1746789365627612</v>
+      </c>
+      <c r="E73">
+        <v>-0.6696074810679381</v>
+      </c>
+      <c r="F73">
+        <v>-0.01286386396873623</v>
+      </c>
+      <c r="G73">
+        <v>-0.01208119211119229</v>
+      </c>
+      <c r="H73">
+        <v>0.1503877889614549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.108730939742889</v>
+        <v>-0.0985931831842763</v>
       </c>
       <c r="C74">
-        <v>-0.07326650161449723</v>
+        <v>-0.09126213568909108</v>
       </c>
       <c r="D74">
-        <v>-0.01321278814856664</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.003700057224187805</v>
+      </c>
+      <c r="E74">
+        <v>0.0769346921060638</v>
+      </c>
+      <c r="F74">
+        <v>-0.06255467950150917</v>
+      </c>
+      <c r="G74">
+        <v>-0.05994433245369939</v>
+      </c>
+      <c r="H74">
+        <v>0.02916534558542389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2500486203159401</v>
+        <v>-0.2271227897744471</v>
       </c>
       <c r="C75">
-        <v>-0.1220288645923344</v>
+        <v>-0.1675309338223955</v>
       </c>
       <c r="D75">
-        <v>0.06958089226327561</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09567855354691068</v>
+      </c>
+      <c r="E75">
+        <v>0.10193943237603</v>
+      </c>
+      <c r="F75">
+        <v>-0.003845665335898731</v>
+      </c>
+      <c r="G75">
+        <v>-0.05155324729762419</v>
+      </c>
+      <c r="H75">
+        <v>0.1112384350715033</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1434585832604005</v>
+        <v>-0.1274630991966691</v>
       </c>
       <c r="C76">
-        <v>-0.08744231597704391</v>
+        <v>-0.1143901720632988</v>
       </c>
       <c r="D76">
-        <v>0.004600654848140599</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01195036501953464</v>
+      </c>
+      <c r="E76">
+        <v>0.1172913260048503</v>
+      </c>
+      <c r="F76">
+        <v>-0.02198340524173925</v>
+      </c>
+      <c r="G76">
+        <v>-0.04564507879482391</v>
+      </c>
+      <c r="H76">
+        <v>-0.00632931612626962</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06667116848730528</v>
+        <v>-0.06091909538225566</v>
       </c>
       <c r="C77">
-        <v>-0.05790831664937055</v>
+        <v>-0.07164715722005577</v>
       </c>
       <c r="D77">
-        <v>-0.04549828585804645</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1305291445254371</v>
+      </c>
+      <c r="E77">
+        <v>0.2089917460923532</v>
+      </c>
+      <c r="F77">
+        <v>0.2422223247436846</v>
+      </c>
+      <c r="G77">
+        <v>0.2374625123791061</v>
+      </c>
+      <c r="H77">
+        <v>0.3819421050087389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04348049924423505</v>
+        <v>-0.04269808730402971</v>
       </c>
       <c r="C78">
-        <v>-0.05244495748756588</v>
+        <v>-0.06652745918297599</v>
       </c>
       <c r="D78">
-        <v>-0.1160718666457306</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1322024428045436</v>
+      </c>
+      <c r="E78">
+        <v>0.01652683047571075</v>
+      </c>
+      <c r="F78">
+        <v>-0.01069474692548388</v>
+      </c>
+      <c r="G78">
+        <v>-0.01525652737430314</v>
+      </c>
+      <c r="H78">
+        <v>-0.02655194434028651</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.007267610775570439</v>
+        <v>-0.04529507671230956</v>
       </c>
       <c r="C79">
-        <v>-0.05834463819947786</v>
+        <v>-0.09088503614483004</v>
       </c>
       <c r="D79">
-        <v>-0.0009429222586289405</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02254279183205505</v>
+      </c>
+      <c r="E79">
+        <v>0.1932387464013815</v>
+      </c>
+      <c r="F79">
+        <v>-0.1311214005979826</v>
+      </c>
+      <c r="G79">
+        <v>-0.7145962995508823</v>
+      </c>
+      <c r="H79">
+        <v>0.3750485630120128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03368170546506723</v>
+        <v>-0.02557469353654031</v>
       </c>
       <c r="C80">
-        <v>-0.02936366793632347</v>
+        <v>-0.04425051538045567</v>
       </c>
       <c r="D80">
-        <v>-0.02494578330938503</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03248193091214117</v>
+      </c>
+      <c r="E80">
+        <v>0.02088590430082069</v>
+      </c>
+      <c r="F80">
+        <v>0.03461393510670183</v>
+      </c>
+      <c r="G80">
+        <v>0.04736830844370099</v>
+      </c>
+      <c r="H80">
+        <v>-0.02067195259532756</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1442222451194296</v>
+        <v>-0.1267534019341718</v>
       </c>
       <c r="C81">
-        <v>-0.09092599403133139</v>
+        <v>-0.1174827142083683</v>
       </c>
       <c r="D81">
-        <v>0.05101857350417272</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.06576482281678728</v>
+      </c>
+      <c r="E81">
+        <v>0.1174491624570952</v>
+      </c>
+      <c r="F81">
+        <v>-0.02270299470451067</v>
+      </c>
+      <c r="G81">
+        <v>-0.0475731247425414</v>
+      </c>
+      <c r="H81">
+        <v>0.01410357575630244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3082235108526932</v>
+        <v>-0.2523765201818906</v>
       </c>
       <c r="C82">
-        <v>-0.2631553731156638</v>
+        <v>-0.2643118755882225</v>
       </c>
       <c r="D82">
-        <v>0.2315246963571949</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.231926338958405</v>
+      </c>
+      <c r="E82">
+        <v>-0.0193034187424018</v>
+      </c>
+      <c r="F82">
+        <v>-0.03673877506918126</v>
+      </c>
+      <c r="G82">
+        <v>-0.08674910614960088</v>
+      </c>
+      <c r="H82">
+        <v>-0.4181145097192341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03336740129127241</v>
+        <v>-0.02313822989363037</v>
       </c>
       <c r="C83">
-        <v>-0.04641270836224611</v>
+        <v>-0.05306700031018763</v>
       </c>
       <c r="D83">
-        <v>-0.04931487897018031</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05273504199537638</v>
+      </c>
+      <c r="E83">
+        <v>0.01390744756056845</v>
+      </c>
+      <c r="F83">
+        <v>0.02227282657300606</v>
+      </c>
+      <c r="G83">
+        <v>0.01804749559500152</v>
+      </c>
+      <c r="H83">
+        <v>-0.02133497977495697</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001895206879528185</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004853152504469819</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01707752869335766</v>
+      </c>
+      <c r="E84">
+        <v>0.01556115286755244</v>
+      </c>
+      <c r="F84">
+        <v>-0.008497159457444841</v>
+      </c>
+      <c r="G84">
+        <v>0.007232278977873138</v>
+      </c>
+      <c r="H84">
+        <v>-0.002963634842816071</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.183082791175106</v>
+        <v>-0.1593717760553897</v>
       </c>
       <c r="C85">
-        <v>-0.09394942712127341</v>
+        <v>-0.1332792418201955</v>
       </c>
       <c r="D85">
-        <v>0.03717260361023535</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06374396667195785</v>
+      </c>
+      <c r="E85">
+        <v>0.05154352270777915</v>
+      </c>
+      <c r="F85">
+        <v>-0.03726673995129071</v>
+      </c>
+      <c r="G85">
+        <v>-0.09174102330649091</v>
+      </c>
+      <c r="H85">
+        <v>0.08329867566782032</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01700171724174943</v>
+        <v>-0.01903635381206882</v>
       </c>
       <c r="C86">
-        <v>-0.02241875455237799</v>
+        <v>-0.02202195568975375</v>
       </c>
       <c r="D86">
-        <v>-0.1394232356981993</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1269585880418911</v>
+      </c>
+      <c r="E86">
+        <v>0.009885610249401884</v>
+      </c>
+      <c r="F86">
+        <v>0.01767735479825974</v>
+      </c>
+      <c r="G86">
+        <v>0.001456789862539254</v>
+      </c>
+      <c r="H86">
+        <v>-0.05563836954320113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02925316945489705</v>
+        <v>-0.03372244259240538</v>
       </c>
       <c r="C87">
-        <v>-0.003743271272674434</v>
+        <v>-0.02482659301174912</v>
       </c>
       <c r="D87">
-        <v>-0.097521633378249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1348374602131176</v>
+      </c>
+      <c r="E87">
+        <v>0.08355293081234035</v>
+      </c>
+      <c r="F87">
+        <v>0.008490326559545345</v>
+      </c>
+      <c r="G87">
+        <v>0.0182651907344431</v>
+      </c>
+      <c r="H87">
+        <v>-0.03434387747059559</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07798290329245489</v>
+        <v>-0.06836944532743743</v>
       </c>
       <c r="C88">
-        <v>-0.03632042247002015</v>
+        <v>-0.05693628231393193</v>
       </c>
       <c r="D88">
-        <v>-0.03361028107953568</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01619982677371765</v>
+      </c>
+      <c r="E88">
+        <v>0.01791640199419937</v>
+      </c>
+      <c r="F88">
+        <v>-0.008468328981732224</v>
+      </c>
+      <c r="G88">
+        <v>-0.001707845422188709</v>
+      </c>
+      <c r="H88">
+        <v>-0.04307051863879476</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1995566637484827</v>
+        <v>-0.279577729144603</v>
       </c>
       <c r="C89">
-        <v>0.3818828304394377</v>
+        <v>0.3559846544857588</v>
       </c>
       <c r="D89">
-        <v>0.02643748649871502</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.001553848865288922</v>
+      </c>
+      <c r="E89">
+        <v>0.05151191337903521</v>
+      </c>
+      <c r="F89">
+        <v>0.04702926098595131</v>
+      </c>
+      <c r="G89">
+        <v>-0.04746792710675817</v>
+      </c>
+      <c r="H89">
+        <v>-0.0881627038748871</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1951500023426805</v>
+        <v>-0.2415749373155584</v>
       </c>
       <c r="C90">
-        <v>0.2971112512122999</v>
+        <v>0.2539902899521993</v>
       </c>
       <c r="D90">
-        <v>0.02958035593264699</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01228620227329893</v>
+      </c>
+      <c r="E90">
+        <v>0.04337678601532812</v>
+      </c>
+      <c r="F90">
+        <v>-0.01251293296345129</v>
+      </c>
+      <c r="G90">
+        <v>0.04961557913064681</v>
+      </c>
+      <c r="H90">
+        <v>-0.04124175891021684</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1850680290202882</v>
+        <v>-0.1596613482589279</v>
       </c>
       <c r="C91">
-        <v>-0.1372984553168583</v>
+        <v>-0.1586304188724231</v>
       </c>
       <c r="D91">
-        <v>0.06657039883735917</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08408869167509017</v>
+      </c>
+      <c r="E91">
+        <v>0.1082424118216836</v>
+      </c>
+      <c r="F91">
+        <v>-0.02583662002880117</v>
+      </c>
+      <c r="G91">
+        <v>-0.09018205815574784</v>
+      </c>
+      <c r="H91">
+        <v>0.0897345053379652</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1672876222255682</v>
+        <v>-0.2227941574233675</v>
       </c>
       <c r="C92">
-        <v>0.2929164574615796</v>
+        <v>0.2705400821210531</v>
       </c>
       <c r="D92">
-        <v>-0.008867482860673235</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0300458611560496</v>
+      </c>
+      <c r="E92">
+        <v>0.08959188454357983</v>
+      </c>
+      <c r="F92">
+        <v>0.01216498091157369</v>
+      </c>
+      <c r="G92">
+        <v>0.01094990778667684</v>
+      </c>
+      <c r="H92">
+        <v>-0.03624785985419893</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2220558734810257</v>
+        <v>-0.2666948698548962</v>
       </c>
       <c r="C93">
-        <v>0.3228785609085709</v>
+        <v>0.2677119702591232</v>
       </c>
       <c r="D93">
-        <v>0.005167679212023026</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.006537324157193</v>
+      </c>
+      <c r="E93">
+        <v>0.01520106909133554</v>
+      </c>
+      <c r="F93">
+        <v>-0.02191750448878658</v>
+      </c>
+      <c r="G93">
+        <v>-0.00279802168302263</v>
+      </c>
+      <c r="H93">
+        <v>0.006485781534130665</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3982726696730963</v>
+        <v>-0.3385687938539721</v>
       </c>
       <c r="C94">
-        <v>-0.2064603175980106</v>
+        <v>-0.2661275472830042</v>
       </c>
       <c r="D94">
-        <v>0.4623021761707402</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4304624041883377</v>
+      </c>
+      <c r="E94">
+        <v>0.09252577186089868</v>
+      </c>
+      <c r="F94">
+        <v>0.02265230395601929</v>
+      </c>
+      <c r="G94">
+        <v>0.4811240662564702</v>
+      </c>
+      <c r="H94">
+        <v>0.1340947384513094</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07565661265878859</v>
+        <v>-0.0671176677953304</v>
       </c>
       <c r="C95">
-        <v>-0.06813747221053715</v>
+        <v>-0.06558336570406027</v>
       </c>
       <c r="D95">
-        <v>-0.1299789494947508</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09046067421907904</v>
+      </c>
+      <c r="E95">
+        <v>0.01276836382963292</v>
+      </c>
+      <c r="F95">
+        <v>0.9171962324276663</v>
+      </c>
+      <c r="G95">
+        <v>-0.1410184195532302</v>
+      </c>
+      <c r="H95">
+        <v>0.005983958298596943</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1733965435485216</v>
+        <v>-0.1611626520680793</v>
       </c>
       <c r="C98">
-        <v>-0.01863868818308356</v>
+        <v>-0.06597097905534219</v>
       </c>
       <c r="D98">
-        <v>-0.166091811318741</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1315746809055099</v>
+      </c>
+      <c r="E98">
+        <v>-0.3187169130098453</v>
+      </c>
+      <c r="F98">
+        <v>-0.04758083756250616</v>
+      </c>
+      <c r="G98">
+        <v>-0.04677794265875498</v>
+      </c>
+      <c r="H98">
+        <v>0.05150284435931503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007176270286928252</v>
+        <v>-0.007049911930729902</v>
       </c>
       <c r="C101">
-        <v>-0.01788419480752785</v>
+        <v>-0.02256557664123117</v>
       </c>
       <c r="D101">
-        <v>-0.06360033099208028</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08108218073316124</v>
+      </c>
+      <c r="E101">
+        <v>0.03470679489755243</v>
+      </c>
+      <c r="F101">
+        <v>-0.006227475529471151</v>
+      </c>
+      <c r="G101">
+        <v>-0.008679751663675569</v>
+      </c>
+      <c r="H101">
+        <v>-0.1130766145990666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.129139897686766</v>
+        <v>-0.1066357907892417</v>
       </c>
       <c r="C102">
-        <v>-0.1136339126270585</v>
+        <v>-0.1184300040522841</v>
       </c>
       <c r="D102">
-        <v>0.03859228518412612</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05615388819918251</v>
+      </c>
+      <c r="E102">
+        <v>0.03155237870652514</v>
+      </c>
+      <c r="F102">
+        <v>0.02297712867551278</v>
+      </c>
+      <c r="G102">
+        <v>-0.03419975285402707</v>
+      </c>
+      <c r="H102">
+        <v>-0.02655426806538146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
